--- a/backEnd/gameStats.xlsx
+++ b/backEnd/gameStats.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>userName</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>demolitions</t>
+  </si>
+  <si>
+    <t>goalsAllowed</t>
+  </si>
+  <si>
+    <t>score</t>
   </si>
 </sst>
 </file>
@@ -311,8 +317,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
